--- a/biology/Botanique/Magnistipula_cupheiflora/Magnistipula_cupheiflora.xlsx
+++ b/biology/Botanique/Magnistipula_cupheiflora/Magnistipula_cupheiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnistipula cupheiflora Mildbr. est une espèce de plantes à fleurs de la famille des Chrysobalanaceae et du genre Magnistipula. C'est un arbre présent en Afrique tropicale.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (7 février 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (7 février 2018) :
 sous-espèce Magnistipula cupheiflora subsp. cupheiflora
 sous-espèce Magnistipula cupheiflora subsp. leonensis
-Selon Tropicos                                           (7 février 2018)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 février 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Magnistipula cupheiflora subsp. cupheiflora
 sous-espèce Magnistipula cupheiflora subsp. leonensis F. White
 variété Magnistipula cupheiflora var. leonensis F. White</t>
@@ -547,10 +561,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier spécimen a été découvert par Mildbraed, en fleurs, le 25 février 1914 près de Nanga-Eboko, au centre du Cameroun[4].
-L'espèce a été observée au Cameroun et au Gabon, la sous-espèce leonensis en Sierra Leone[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier spécimen a été découvert par Mildbraed, en fleurs, le 25 février 1914 près de Nanga-Eboko, au centre du Cameroun.
+L'espèce a été observée au Cameroun et au Gabon, la sous-espèce leonensis en Sierra Leone.
 </t>
         </is>
       </c>
